--- a/conditional-formatting-excel-chart.xlsx
+++ b/conditional-formatting-excel-chart.xlsx
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51EC2A9E-E5C6-4708-857F-15B98A976652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75995ED1-7AC0-44F7-99BD-3B32DD7FD740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="threshold">Sheet1!$B$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Borough</t>
   </si>
@@ -41,6 +57,12 @@
   </si>
   <si>
     <t>Staten Island</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>Land area threshold</t>
   </si>
 </sst>
 </file>
@@ -97,28 +119,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -249,7 +277,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -270,47 +298,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Staten Island</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Queens</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Manhattan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Bronx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Staten Island</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Brooklyn</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Queens</c:v>
+                  <c:v>Bronx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>58.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>22.83</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108.7</c:v>
+                  <c:v>42.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -318,6 +346,83 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A473-45D7-B1AF-D33F0E5FAE8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Land area threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Staten Island</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Queens</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brooklyn</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bronx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>58.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDC9-4C18-9BB0-E9ECF30980BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -330,7 +435,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="61"/>
-        <c:overlap val="-6"/>
+        <c:overlap val="100"/>
         <c:axId val="1539946559"/>
         <c:axId val="1539947519"/>
       </c:barChart>
@@ -1081,16 +1186,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>166851</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>5913</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>334358</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>59121</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>62406</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>226629</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1119,14 +1224,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{277B133E-D126-40F4-A3EE-E9C4200B7B93}" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:B6" xr:uid="{277B133E-D126-40F4-A3EE-E9C4200B7B93}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
-    <sortCondition ref="B1:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{277B133E-D126-40F4-A3EE-E9C4200B7B93}" name="Table1" displayName="Table1" ref="A3:C8" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A3:C8" xr:uid="{277B133E-D126-40F4-A3EE-E9C4200B7B93}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C8">
+    <sortCondition descending="1" ref="A3:A8"/>
   </sortState>
-  <tableColumns count="2">
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{414EAEC2-3962-4DF6-A03F-87AF2A546B1D}" name="Borough"/>
     <tableColumn id="2" xr3:uid="{D0176ED9-7CF8-48AE-B6EA-8066D4BCECCF}" name="Land Area (sq mi)"/>
+    <tableColumn id="3" xr3:uid="{CC53AAE2-6129-4B94-8C4A-E6087DD35393}" name="Land area threshold" dataDxfId="0">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[Land Area (sq mi)]] &gt; threshold, Table1[[#This Row],[Land Area (sq mi)]], "")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1449,64 +1557,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.1328125" customWidth="1"/>
     <col min="2" max="2" width="16.265625" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>22.83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>42.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
         <v>58.37</v>
       </c>
+      <c r="C4">
+        <f>IF(Table1[[#This Row],[Land Area (sq mi)]] &gt; threshold, Table1[[#This Row],[Land Area (sq mi)]], "")</f>
+        <v>58.37</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>108.7</v>
+      </c>
+      <c r="C5">
+        <f>IF(Table1[[#This Row],[Land Area (sq mi)]] &gt; threshold, Table1[[#This Row],[Land Area (sq mi)]], "")</f>
+        <v>108.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>22.83</v>
+      </c>
+      <c r="C6" t="str">
+        <f>IF(Table1[[#This Row],[Land Area (sq mi)]] &gt; threshold, Table1[[#This Row],[Land Area (sq mi)]], "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>69.5</v>
       </c>
+      <c r="C7">
+        <f>IF(Table1[[#This Row],[Land Area (sq mi)]] &gt; threshold, Table1[[#This Row],[Land Area (sq mi)]], "")</f>
+        <v>69.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>108.7</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>42.1</v>
+      </c>
+      <c r="C8" t="str">
+        <f>IF(Table1[[#This Row],[Land Area (sq mi)]] &gt; threshold, Table1[[#This Row],[Land Area (sq mi)]], "")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
